--- a/php/src/WebScrapping/chuvaphp.xlsx
+++ b/php/src/WebScrapping/chuvaphp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guuhm\OneDrive\Documentos\estagio_chuva\exercicios-2023\php\src\WebScrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5024B-5E1A-4D1E-B464-665A98B590AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77C99C-4440-4010-9BD5-FE1418940FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1436,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ64"/>
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S48" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,7 +2332,7 @@
       <c r="A20">
         <v>137486</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C20" t="s">
@@ -3101,7 +3101,7 @@
       <c r="A55">
         <v>139182</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>297</v>
       </c>
       <c r="C55" t="s">
@@ -3481,10 +3481,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>